--- a/Examples/Data/Articles/CustomSliceSectorColorsPieChart/output.xlsx
+++ b/Examples/Data/Articles/CustomSliceSectorColorsPieChart/output.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -39,7 +39,7 @@
     <t>% of world population</t>
   </si>
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2014 Aspose Pty Ltd.</t>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -49,6 +49,7 @@
   <fonts count="2">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -193,7 +194,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:title>
       <c:tx>
         <c:strRef>
@@ -222,6 +222,7 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -306,13 +307,18 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr vert="horz" rot="0"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US" u="none" baseline="0"/>
+        <a:defRPr lang="en-US" u="none" baseline="0">
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -320,7 +326,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -340,7 +346,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4667250" y="161925"/>
+        <a:off x="4657725" y="161925"/>
         <a:ext cx="4876800" cy="2266950"/>
       </xdr:xfrm>
       <a:graphic>
@@ -673,15 +679,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="C2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="12.75">
@@ -739,18 +745,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -759,6 +765,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>